--- a/output2/【河洛話注音】金剛般若波羅蜜經002。善現啟請分第二.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經002。善現啟請分第二.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2F258B-583D-48F7-A394-77042074167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F37460-5F9F-4482-A488-EFA58533778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="12495" windowWidth="36150" windowHeight="15585" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="446">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,9 +1180,6 @@
     <t>長</t>
   </si>
   <si>
-    <t>老</t>
-  </si>
-  <si>
     <t>須</t>
   </si>
   <si>
@@ -1231,9 +1228,6 @@
     <t>肩</t>
   </si>
   <si>
-    <t>膝</t>
-  </si>
-  <si>
     <t>著</t>
   </si>
   <si>
@@ -1415,12 +1409,6 @@
   </si>
   <si>
     <t>願</t>
-  </si>
-  <si>
-    <t>樂</t>
-  </si>
-  <si>
-    <t>欲</t>
   </si>
   <si>
     <t>聞</t>
@@ -1442,22 +1430,10 @@
     <phoneticPr fontId="58" type="noConversion"/>
   </si>
   <si>
-    <t>sian6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄧㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hian7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>khe2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1466,22 +1442,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshing2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㄧㄥˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>te7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1494,42 +1458,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tng5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆭˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄨ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>phoo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1546,10 +1482,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄞˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,48 +1490,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄨㄚ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsing3</t>
-  </si>
-  <si>
-    <t>ㄗㄧㄥ˫</t>
-  </si>
-  <si>
     <t>tiong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄧㆲ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsiah4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tso7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄜ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>khi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1612,10 +1506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄆㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>than2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1628,34 +1518,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kian1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄢ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshiek4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tio0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hah8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1664,30 +1530,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiang2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄧㄤˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>king3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄥ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ji5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>piat8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1696,14 +1546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1716,34 +1558,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄧ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>se3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsun1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄨㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ju5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1752,38 +1570,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lai0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hoo7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liam7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㄧㆰ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sat4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1800,30 +1594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsur2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lang5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>puh4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1836,26 +1606,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄚ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>loo7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄌㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄜ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1868,10 +1626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㆰ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>biau2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1884,10 +1638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧㆬ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>un5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1896,38 +1646,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ua5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄚˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>in3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㄣ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiu7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kang3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄤ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1944,14 +1666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsai1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄞ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>soo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1972,10 +1686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄧㄣ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>te3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1988,18 +1698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄊ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tng1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆭ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2012,47 +1710,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄙㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆡㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guan7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㆣㄨㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆣㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beh4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㆤㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bun5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄨㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆰ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄧㆩˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ngau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄫㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,7 +2106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="79">
+  <fonts count="80">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2613,6 +2659,13 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2826,7 +2879,7 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3173,6 +3226,12 @@
     </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
@@ -4004,7 +4063,7 @@
   </sheetPr>
   <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4055,7 +4114,7 @@
         <v>166</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -4152,8 +4211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V62" sqref="V62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4256,32 +4315,32 @@
       <c r="R3" s="111"/>
       <c r="S3" s="78"/>
       <c r="T3" s="74"/>
-      <c r="V3" s="117" t="s">
+      <c r="V3" s="119" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="97" t="s">
+        <v>417</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="97" t="s">
+        <v>352</v>
+      </c>
+      <c r="H4" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="J4" s="97" t="s">
         <v>284</v>
-      </c>
-      <c r="F4" s="97" t="s">
-        <v>286</v>
-      </c>
-      <c r="G4" s="97" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="97" t="s">
-        <v>290</v>
-      </c>
-      <c r="I4" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="97" t="s">
-        <v>294</v>
       </c>
       <c r="K4" s="97"/>
       <c r="L4" s="97"/>
@@ -4292,7 +4351,7 @@
       <c r="Q4" s="97"/>
       <c r="R4" s="97"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="118"/>
+      <c r="V4" s="120"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
@@ -4326,31 +4385,31 @@
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="118"/>
+      <c r="V5" s="120"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>285</v>
+        <v>376</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>291</v>
+        <v>377</v>
       </c>
       <c r="I6" s="109" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="J6" s="109" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="K6" s="109"/>
       <c r="L6" s="109"/>
@@ -4361,7 +4420,7 @@
       <c r="Q6" s="109"/>
       <c r="R6" s="109"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="118"/>
+      <c r="V6" s="120"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
@@ -4382,56 +4441,56 @@
       <c r="Q7" s="86"/>
       <c r="R7" s="86"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="118"/>
+      <c r="V7" s="120"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="97" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="G8" s="97" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="H8" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="I8" s="97" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="J8" s="97" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="K8" s="97" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="L8" s="97" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="M8" s="97" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="N8" s="97"/>
       <c r="O8" s="97" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="P8" s="97" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="97" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="S8" s="53"/>
-      <c r="V8" s="118"/>
+      <c r="V8" s="120"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4442,100 +4501,100 @@
       <c r="D9" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="117" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="118" t="s">
+        <v>441</v>
+      </c>
+      <c r="G9" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="H9" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="I9" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="J9" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="K9" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="L9" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="M9" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="N9" s="75" t="s">
         <v>202</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="O9" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="O9" s="75" t="s">
+      <c r="P9" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="Q9" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="Q9" s="75" t="s">
+      <c r="R9" s="75" t="s">
         <v>206</v>
-      </c>
-      <c r="R9" s="75" t="s">
-        <v>207</v>
       </c>
       <c r="S9" s="54"/>
       <c r="T9" s="74"/>
-      <c r="V9" s="118"/>
+      <c r="V9" s="120"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="109" t="s">
-        <v>297</v>
+        <v>354</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>301</v>
+        <v>443</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="H10" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="I10" s="109" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="K10" s="109" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="L10" s="109" t="s">
-        <v>313</v>
+        <v>382</v>
       </c>
       <c r="M10" s="109" t="s">
-        <v>315</v>
+        <v>383</v>
       </c>
       <c r="N10" s="109"/>
       <c r="O10" s="109" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="P10" s="109" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="109" t="s">
-        <v>321</v>
+        <v>384</v>
       </c>
       <c r="R10" s="109" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="S10" s="58"/>
-      <c r="V10" s="118"/>
+      <c r="V10" s="120"/>
     </row>
     <row r="11" spans="2:22" s="87" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="84"/>
@@ -4556,52 +4615,52 @@
       <c r="Q11" s="82"/>
       <c r="R11" s="82"/>
       <c r="S11" s="57"/>
-      <c r="V11" s="118"/>
+      <c r="V11" s="120"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="G12" s="97" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="H12" s="97" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="I12" s="97"/>
       <c r="J12" s="97" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="K12" s="97" t="s">
-        <v>332</v>
+        <v>421</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="M12" s="97" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="N12" s="97"/>
       <c r="O12" s="97" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="P12" s="97" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="97" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="118"/>
+      <c r="V12" s="120"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4610,94 +4669,94 @@
       </c>
       <c r="C13" s="52"/>
       <c r="D13" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E13" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="75" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="G13" s="75" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="H13" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="I13" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="J13" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="K13" s="117" t="s">
+        <v>406</v>
+      </c>
+      <c r="L13" s="75" t="s">
         <v>211</v>
       </c>
-      <c r="I13" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="J13" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="K13" s="75" t="s">
+      <c r="M13" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="L13" s="75" t="s">
+      <c r="N13" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="O13" s="75" t="s">
         <v>213</v>
       </c>
-      <c r="M13" s="75" t="s">
+      <c r="P13" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="N13" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="O13" s="75" t="s">
+      <c r="Q13" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="P13" s="75" t="s">
+      <c r="R13" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="Q13" s="75" t="s">
-        <v>217</v>
-      </c>
-      <c r="R13" s="75" t="s">
-        <v>218</v>
-      </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="119"/>
+      <c r="V13" s="121"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
       <c r="D14" s="109"/>
       <c r="E14" s="109" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="G14" s="109" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="H14" s="109" t="s">
-        <v>331</v>
+        <v>387</v>
       </c>
       <c r="I14" s="109"/>
       <c r="J14" s="109" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="K14" s="109" t="s">
-        <v>333</v>
+        <v>422</v>
       </c>
       <c r="L14" s="109" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
       <c r="M14" s="109" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="N14" s="109"/>
       <c r="O14" s="109" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="P14" s="109" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="Q14" s="109" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="R14" s="109" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="71"/>
@@ -4728,38 +4787,38 @@
       <c r="C16" s="52"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="F16" s="97" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="G16" s="97" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="H16" s="97" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="I16" s="97"/>
       <c r="J16" s="97"/>
       <c r="K16" s="97" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="M16" s="97"/>
       <c r="N16" s="97" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="O16" s="97" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="P16" s="97"/>
       <c r="Q16" s="97" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="71"/>
@@ -4771,49 +4830,49 @@
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="75" t="s">
         <v>219</v>
       </c>
-      <c r="E17" s="75" t="s">
+      <c r="G17" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="H17" s="75" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="75" t="s">
+      <c r="I17" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="H17" s="75" t="s">
+      <c r="J17" s="75" t="s">
         <v>223</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="K17" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="J17" s="75" t="s">
+      <c r="L17" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="M17" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="L17" s="75" t="s">
+      <c r="N17" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="M17" s="75" t="s">
+      <c r="O17" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="N17" s="75" t="s">
+      <c r="P17" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q17" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="O17" s="75" t="s">
+      <c r="R17" s="75" t="s">
         <v>230</v>
-      </c>
-      <c r="P17" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q17" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="R17" s="75" t="s">
-        <v>232</v>
       </c>
       <c r="S17" s="54"/>
       <c r="V17" s="71"/>
@@ -4823,38 +4882,38 @@
       <c r="C18" s="52"/>
       <c r="D18" s="109"/>
       <c r="E18" s="109" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="H18" s="109" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="I18" s="109"/>
       <c r="J18" s="109"/>
       <c r="K18" s="109" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="L18" s="109" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M18" s="109"/>
       <c r="N18" s="109" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="O18" s="109" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="P18" s="109"/>
       <c r="Q18" s="109" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="R18" s="109" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="71"/>
@@ -4884,45 +4943,45 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="E20" s="97" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="G20" s="97" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="H20" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="I20" s="97" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="J20" s="97"/>
       <c r="K20" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="M20" s="97" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N20" s="97" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="O20" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="P20" s="97" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="97"/>
       <c r="R20" s="97" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="71"/>
@@ -4933,50 +4992,50 @@
         <v>5</v>
       </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="75" t="s">
-        <v>186</v>
+      <c r="D21" s="117" t="s">
+        <v>407</v>
       </c>
       <c r="E21" s="75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F21" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="117" t="s">
+        <v>408</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21" s="75" t="s">
         <v>234</v>
       </c>
-      <c r="G21" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="75" t="s">
-        <v>236</v>
-      </c>
       <c r="J21" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K21" s="75" t="s">
         <v>186</v>
       </c>
       <c r="L21" s="75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M21" s="75" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N21" s="75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O21" s="75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P21" s="75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="Q21" s="75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R21" s="75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S21" s="54"/>
       <c r="V21" s="71"/>
@@ -4985,45 +5044,45 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="E22" s="109" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="F22" s="109" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="G22" s="109" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="H22" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="I22" s="109" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="J22" s="109"/>
       <c r="K22" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="L22" s="109" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="M22" s="109" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N22" s="109" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="O22" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="P22" s="109" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="109"/>
       <c r="R22" s="109" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="71"/>
@@ -5053,43 +5112,43 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="97" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E24" s="97"/>
       <c r="F24" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="G24" s="97" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="I24" s="97"/>
       <c r="J24" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="K24" s="97" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="M24" s="97"/>
       <c r="N24" s="97" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="O24" s="97" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="P24" s="97" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="Q24" s="97" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="R24" s="97" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="71"/>
@@ -5101,49 +5160,49 @@
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E25" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F25" s="75" t="s">
         <v>186</v>
       </c>
       <c r="G25" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="117" t="s">
+        <v>409</v>
+      </c>
+      <c r="I25" s="75" t="s">
         <v>239</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>241</v>
       </c>
       <c r="J25" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="K25" s="75" t="s">
+      <c r="K25" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="N25" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="L25" s="75" t="s">
+      <c r="O25" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="N25" s="75" t="s">
+      <c r="P25" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="O25" s="75" t="s">
+      <c r="Q25" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="P25" s="75" t="s">
+      <c r="R25" s="75" t="s">
         <v>246</v>
-      </c>
-      <c r="Q25" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="R25" s="75" t="s">
-        <v>248</v>
       </c>
       <c r="S25" s="54"/>
       <c r="T25" s="49"/>
@@ -5154,43 +5213,43 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="109" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="E26" s="109"/>
       <c r="F26" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="G26" s="109" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="H26" s="109" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="I26" s="109"/>
       <c r="J26" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="K26" s="109" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="L26" s="109" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M26" s="109"/>
       <c r="N26" s="109" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="O26" s="109" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="P26" s="109" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="Q26" s="109" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="R26" s="109" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="S26" s="58"/>
       <c r="V26" s="71"/>
@@ -5222,45 +5281,45 @@
       <c r="B28" s="65"/>
       <c r="C28" s="1"/>
       <c r="D28" s="97" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="E28" s="97" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="G28" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="H28" s="97" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="I28" s="97" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="97" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="M28" s="97" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="N28" s="97" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="97" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="R28" s="97" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="S28" s="53"/>
       <c r="T28" s="1"/>
@@ -5272,49 +5331,49 @@
         <v>7</v>
       </c>
       <c r="D29" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="I29" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="J29" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="H29" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="I29" s="75" t="s">
+      <c r="L29" s="117" t="s">
+        <v>411</v>
+      </c>
+      <c r="M29" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="N29" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="O29" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q29" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="J29" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="K29" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="L29" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="M29" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="N29" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="O29" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="P29" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q29" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="R29" s="75" t="s">
-        <v>257</v>
+      <c r="R29" s="117" t="s">
+        <v>412</v>
       </c>
       <c r="S29" s="54"/>
       <c r="T29" s="49"/>
@@ -5325,45 +5384,45 @@
       <c r="B30" s="69"/>
       <c r="C30" s="51"/>
       <c r="D30" s="109" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E30" s="109" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="F30" s="109" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="G30" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="H30" s="109" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="I30" s="109" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="J30" s="109"/>
       <c r="K30" s="109" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="L30" s="109" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="M30" s="109" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N30" s="109" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="O30" s="109"/>
       <c r="P30" s="109" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="Q30" s="109" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="R30" s="109" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="S30" s="55"/>
       <c r="V30" s="71"/>
@@ -5396,36 +5455,36 @@
       <c r="B32" s="65"/>
       <c r="C32" s="1"/>
       <c r="D32" s="97" t="s">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="E32" s="97" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="G32" s="97"/>
       <c r="H32" s="97"/>
       <c r="I32" s="97" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="J32" s="97" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="K32" s="97"/>
       <c r="L32" s="97"/>
       <c r="M32" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="N32" s="97" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="Q32" s="97" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="R32" s="97"/>
       <c r="S32" s="53"/>
@@ -5438,49 +5497,49 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="E33" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="F33" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="G33" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="75" t="s">
-        <v>260</v>
-      </c>
       <c r="I33" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="J33" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="K33" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="L33" s="75" t="s">
         <v>223</v>
-      </c>
-      <c r="K33" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="L33" s="75" t="s">
-        <v>225</v>
       </c>
       <c r="M33" s="75" t="s">
         <v>186</v>
       </c>
       <c r="N33" s="75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O33" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P33" s="75" t="s">
         <v>186</v>
       </c>
       <c r="Q33" s="75" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="R33" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S33" s="54"/>
       <c r="T33" s="1"/>
@@ -5489,36 +5548,36 @@
       <c r="B34" s="69"/>
       <c r="C34" s="1"/>
       <c r="D34" s="109" t="s">
-        <v>405</v>
+        <v>334</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
       <c r="F34" s="109" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="G34" s="109"/>
       <c r="H34" s="109"/>
       <c r="I34" s="109" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="J34" s="109" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="K34" s="109"/>
       <c r="L34" s="109"/>
       <c r="M34" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="N34" s="109" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="O34" s="109"/>
       <c r="P34" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="Q34" s="109" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="R34" s="109"/>
       <c r="S34" s="58"/>
@@ -5549,45 +5608,45 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="97" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E36" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G36" s="97"/>
       <c r="H36" s="97" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="I36" s="97" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="J36" s="97" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="K36" s="97" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="L36" s="97"/>
       <c r="M36" s="97" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="N36" s="97" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="O36" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="P36" s="97" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="Q36" s="97" t="s">
-        <v>364</v>
+        <v>314</v>
       </c>
       <c r="R36" s="97" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="S36" s="53"/>
       <c r="T36" s="1"/>
@@ -5599,49 +5658,49 @@
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="F37" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="75" t="s">
-        <v>198</v>
-      </c>
       <c r="G37" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H37" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="I37" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="117" t="s">
+        <v>413</v>
+      </c>
+      <c r="J37" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="J37" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="K37" s="75" t="s">
-        <v>264</v>
-      </c>
       <c r="L37" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M37" s="75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N37" s="75" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O37" s="75" t="s">
         <v>186</v>
       </c>
       <c r="P37" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q37" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="R37" s="75" t="s">
         <v>233</v>
-      </c>
-      <c r="Q37" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="R37" s="75" t="s">
-        <v>235</v>
       </c>
       <c r="S37" s="54"/>
       <c r="T37" s="1"/>
@@ -5650,45 +5709,45 @@
       <c r="B38" s="69"/>
       <c r="C38" s="52"/>
       <c r="D38" s="109" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="E38" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F38" s="109" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G38" s="109"/>
       <c r="H38" s="109" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="I38" s="109" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="J38" s="109" t="s">
-        <v>411</v>
+        <v>338</v>
       </c>
       <c r="K38" s="109" t="s">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="L38" s="109"/>
       <c r="M38" s="109" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="N38" s="109" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="O38" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="P38" s="109" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="Q38" s="109" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="R38" s="109" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="S38" s="58"/>
       <c r="T38" s="1"/>
@@ -5719,42 +5778,42 @@
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E40" s="97" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="F40" s="97"/>
       <c r="G40" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="H40" s="97" t="s">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="I40" s="97" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J40" s="97" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="K40" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="L40" s="97" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="M40" s="97"/>
       <c r="N40" s="97" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="O40" s="97" t="s">
-        <v>414</v>
+        <v>341</v>
       </c>
       <c r="P40" s="97" t="s">
-        <v>416</v>
+        <v>342</v>
       </c>
       <c r="Q40" s="97" t="s">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="R40" s="97"/>
       <c r="S40" s="53"/>
@@ -5767,49 +5826,49 @@
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E41" s="75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F41" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G41" s="75" t="s">
         <v>186</v>
       </c>
       <c r="H41" s="75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I41" s="75" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J41" s="75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K41" s="75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L41" s="75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M41" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="N41" s="75" t="s">
-        <v>262</v>
+        <v>217</v>
+      </c>
+      <c r="N41" s="117" t="s">
+        <v>260</v>
       </c>
       <c r="O41" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="P41" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q41" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="P41" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q41" s="75" t="s">
-        <v>267</v>
-      </c>
       <c r="R41" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S41" s="54"/>
       <c r="T41" s="1"/>
@@ -5818,42 +5877,42 @@
       <c r="B42" s="69"/>
       <c r="C42" s="52"/>
       <c r="D42" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E42" s="109" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="F42" s="109"/>
       <c r="G42" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="H42" s="109" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="I42" s="109" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J42" s="109" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="K42" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="L42" s="109" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="M42" s="109"/>
       <c r="N42" s="109" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="O42" s="109" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="P42" s="109" t="s">
-        <v>417</v>
+        <v>283</v>
       </c>
       <c r="Q42" s="109" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="R42" s="109"/>
       <c r="S42" s="58"/>
@@ -5885,43 +5944,43 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="97" t="s">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="E44" s="97" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="H44" s="97"/>
       <c r="I44" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="J44" s="97" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="K44" s="97" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="L44" s="97"/>
       <c r="M44" s="97" t="s">
-        <v>282</v>
+        <v>417</v>
       </c>
       <c r="N44" s="97" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="O44" s="97" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P44" s="97"/>
       <c r="Q44" s="97" t="s">
-        <v>378</v>
+        <v>319</v>
       </c>
       <c r="R44" s="97" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="S44" s="53"/>
       <c r="T44" s="1"/>
@@ -5932,50 +5991,50 @@
         <v>11</v>
       </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="75" t="s">
-        <v>268</v>
+      <c r="D45" s="118" t="s">
+        <v>266</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="F45" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>260</v>
+      </c>
+      <c r="G45" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="G45" s="75" t="s">
-        <v>264</v>
-      </c>
       <c r="H45" s="75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I45" s="75" t="s">
         <v>186</v>
       </c>
       <c r="J45" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="K45" s="117" t="s">
+        <v>238</v>
+      </c>
+      <c r="L45" s="75" t="s">
         <v>239</v>
-      </c>
-      <c r="K45" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="L45" s="75" t="s">
-        <v>241</v>
       </c>
       <c r="M45" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="N45" s="75" t="s">
+      <c r="N45" s="117" t="s">
+        <v>240</v>
+      </c>
+      <c r="O45" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="P45" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q45" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="O45" s="75" t="s">
+      <c r="R45" s="75" t="s">
         <v>243</v>
-      </c>
-      <c r="P45" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q45" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="R45" s="75" t="s">
-        <v>245</v>
       </c>
       <c r="S45" s="54"/>
       <c r="T45" s="1"/>
@@ -5984,43 +6043,43 @@
       <c r="B46" s="69"/>
       <c r="C46" s="52"/>
       <c r="D46" s="109" t="s">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="E46" s="109" t="s">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="F46" s="109" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="G46" s="109" t="s">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="H46" s="109"/>
       <c r="I46" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="J46" s="109" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="K46" s="109" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="L46" s="109"/>
       <c r="M46" s="109" t="s">
-        <v>283</v>
+        <v>418</v>
       </c>
       <c r="N46" s="109" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="O46" s="109" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="P46" s="109"/>
       <c r="Q46" s="109" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="R46" s="109" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="S46" s="53"/>
       <c r="T46" s="1"/>
@@ -6051,44 +6110,44 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="97" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="E48" s="97" t="s">
-        <v>384</v>
+        <v>323</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="G48" s="97" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="H48" s="97" t="s">
-        <v>390</v>
+        <v>327</v>
       </c>
       <c r="I48" s="97" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="J48" s="97" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K48" s="97" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="L48" s="97" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="M48" s="97"/>
       <c r="N48" s="97" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="O48" s="97" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="P48" s="97" t="s">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="Q48" s="97" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="R48" s="97"/>
       <c r="S48" s="58"/>
@@ -6101,49 +6160,49 @@
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="G49" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="F49" s="75" t="s">
+      <c r="H49" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="G49" s="75" t="s">
+      <c r="I49" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="J49" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="K49" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="L49" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="H49" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I49" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="J49" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="K49" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="L49" s="75" t="s">
-        <v>251</v>
-      </c>
       <c r="M49" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N49" s="75" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O49" s="75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P49" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q49" s="75" t="s">
-        <v>255</v>
+        <v>268</v>
+      </c>
+      <c r="Q49" s="117" t="s">
+        <v>414</v>
       </c>
       <c r="R49" s="75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S49" s="53"/>
       <c r="T49" s="1"/>
@@ -6151,44 +6210,44 @@
     <row r="50" spans="2:22" ht="36" customHeight="1">
       <c r="B50" s="69"/>
       <c r="D50" s="109" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="E50" s="109" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="F50" s="109" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="G50" s="109" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="H50" s="109" t="s">
-        <v>391</v>
+        <v>328</v>
       </c>
       <c r="I50" s="109" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="J50" s="109" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="K50" s="109" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="L50" s="109" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M50" s="109"/>
       <c r="N50" s="109" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O50" s="109" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="P50" s="109" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="Q50" s="109" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="R50" s="109"/>
       <c r="S50" s="112"/>
@@ -6219,38 +6278,38 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="97" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="E52" s="97" t="s">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="G52" s="97" t="s">
-        <v>404</v>
+        <v>333</v>
       </c>
       <c r="H52" s="97" t="s">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="I52" s="97" t="s">
-        <v>392</v>
+        <v>329</v>
       </c>
       <c r="J52" s="97"/>
       <c r="K52" s="97"/>
       <c r="L52" s="97"/>
       <c r="M52" s="97" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="N52" s="97" t="s">
-        <v>426</v>
+        <v>348</v>
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
       <c r="Q52" s="97" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="R52" s="97"/>
       <c r="S52" s="58"/>
@@ -6263,49 +6322,49 @@
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E53" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="F53" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="H53" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="I53" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="J53" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="K53" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="L53" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="M53" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="N53" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="F53" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="G53" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="H53" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="I53" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="J53" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="K53" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="L53" s="75" t="s">
-        <v>225</v>
-      </c>
-      <c r="M53" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="N53" s="75" t="s">
-        <v>272</v>
-      </c>
       <c r="O53" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="P53" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q53" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="P53" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q53" s="75" t="s">
-        <v>230</v>
-      </c>
       <c r="R53" s="75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="S53" s="53"/>
       <c r="T53" s="1"/>
@@ -6313,38 +6372,38 @@
     <row r="54" spans="2:22" ht="36" customHeight="1">
       <c r="B54" s="69"/>
       <c r="D54" s="109" t="s">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="E54" s="109" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="F54" s="109" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="G54" s="109" t="s">
-        <v>405</v>
+        <v>334</v>
       </c>
       <c r="H54" s="109" t="s">
-        <v>407</v>
+        <v>336</v>
       </c>
       <c r="I54" s="109" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="J54" s="109"/>
       <c r="K54" s="109"/>
       <c r="L54" s="109"/>
       <c r="M54" s="109" t="s">
-        <v>423</v>
+        <v>346</v>
       </c>
       <c r="N54" s="109" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="O54" s="109"/>
       <c r="P54" s="109" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="Q54" s="109" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="R54" s="109"/>
       <c r="S54" s="112"/>
@@ -6374,16 +6433,16 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="97" t="s">
-        <v>428</v>
+        <v>349</v>
       </c>
       <c r="E56" s="97" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="G56" s="97" t="s">
-        <v>434</v>
+        <v>350</v>
       </c>
       <c r="H56" s="97"/>
       <c r="I56" s="97"/>
@@ -6406,22 +6465,22 @@
       </c>
       <c r="C57" s="52"/>
       <c r="D57" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="E57" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="F57" s="75" t="s">
-        <v>275</v>
+        <v>271</v>
+      </c>
+      <c r="E57" s="117" t="s">
+        <v>415</v>
+      </c>
+      <c r="F57" s="117" t="s">
+        <v>416</v>
       </c>
       <c r="G57" s="75" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H57" s="75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I57" s="75" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J57" s="75"/>
       <c r="K57" s="75"/>
@@ -6438,16 +6497,16 @@
     <row r="58" spans="2:22" ht="36" customHeight="1">
       <c r="B58" s="69"/>
       <c r="D58" s="109" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="E58" s="109" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="F58" s="109" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="G58" s="109" t="s">
-        <v>435</v>
+        <v>351</v>
       </c>
       <c r="H58" s="109"/>
       <c r="I58" s="109"/>
@@ -6649,7 +6708,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="120" t="s">
+      <c r="B5" s="122" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6667,7 +6726,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="120" t="s">
+      <c r="I5" s="122" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -6692,7 +6751,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="121"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -6712,7 +6771,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="121"/>
+      <c r="I6" s="123"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -6734,7 +6793,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="121"/>
+      <c r="B7" s="123"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6750,7 +6809,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="121"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -6772,7 +6831,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="121"/>
+      <c r="B8" s="123"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -6788,7 +6847,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="121"/>
+      <c r="I8" s="123"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -6810,7 +6869,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="121"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6826,7 +6885,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="121"/>
+      <c r="I9" s="123"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -6848,7 +6907,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="122"/>
+      <c r="B10" s="124"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -6864,7 +6923,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="122"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -6887,7 +6946,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="120" t="s">
+      <c r="B11" s="122" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -6905,7 +6964,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="120" t="s">
+      <c r="I11" s="122" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -6929,7 +6988,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="121"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -6949,7 +7008,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="121"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -6969,7 +7028,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="121"/>
+      <c r="B13" s="123"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -6983,7 +7042,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="121"/>
+      <c r="I13" s="123"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7003,7 +7062,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="121"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7017,7 +7076,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="121"/>
+      <c r="I14" s="123"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7037,7 +7096,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="121"/>
+      <c r="B15" s="123"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7051,7 +7110,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="121"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7071,7 +7130,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="122"/>
+      <c r="B16" s="124"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -7085,7 +7144,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="122"/>
+      <c r="I16" s="124"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output2/【河洛話注音】金剛般若波羅蜜經002。善現啟請分第二.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經002。善現啟請分第二.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F37460-5F9F-4482-A488-EFA58533778E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5176A97-0625-4547-88B5-409CB03AD581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28545" yWindow="405" windowWidth="27645" windowHeight="15585" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -1486,10 +1486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tua7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tiong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,14 +1534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>piat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1838,10 +1826,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄨㄚ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ziong3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2099,6 +2083,22 @@
   </si>
   <si>
     <t>ㄉㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4211,9 +4211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -4322,7 +4320,7 @@
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E4" s="97" t="s">
         <v>278</v>
@@ -4331,7 +4329,7 @@
         <v>279</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H4" s="97" t="s">
         <v>281</v>
@@ -4391,25 +4389,25 @@
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
       <c r="D6" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E6" s="109" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F6" s="109" t="s">
         <v>280</v>
       </c>
       <c r="G6" s="109" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H6" s="109" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I6" s="109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J6" s="109" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K6" s="109"/>
       <c r="L6" s="109"/>
@@ -4450,10 +4448,10 @@
         <v>285</v>
       </c>
       <c r="E8" s="97" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F8" s="97" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G8" s="97" t="s">
         <v>286</v>
@@ -4465,29 +4463,29 @@
         <v>289</v>
       </c>
       <c r="J8" s="97" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K8" s="97" t="s">
+        <v>442</v>
+      </c>
+      <c r="L8" s="97" t="s">
+        <v>377</v>
+      </c>
+      <c r="M8" s="97" t="s">
         <v>292</v>
-      </c>
-      <c r="L8" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="M8" s="97" t="s">
-        <v>293</v>
       </c>
       <c r="N8" s="97"/>
       <c r="O8" s="97" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P8" s="97" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="97" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="R8" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S8" s="53"/>
       <c r="V8" s="120"/>
@@ -4505,7 +4503,7 @@
         <v>194</v>
       </c>
       <c r="F9" s="118" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G9" s="75" t="s">
         <v>195</v>
@@ -4551,16 +4549,16 @@
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
       <c r="D10" s="109" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E10" s="109" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F10" s="109" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G10" s="109" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H10" s="109" t="s">
         <v>288</v>
@@ -4572,26 +4570,26 @@
         <v>291</v>
       </c>
       <c r="K10" s="109" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="L10" s="109" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M10" s="109" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N10" s="109"/>
       <c r="O10" s="109" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P10" s="109" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="109" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R10" s="109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S10" s="58"/>
       <c r="V10" s="120"/>
@@ -4622,42 +4620,42 @@
       <c r="C12" s="52"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="F12" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="F12" s="97" t="s">
-        <v>297</v>
-      </c>
       <c r="G12" s="97" t="s">
+        <v>298</v>
+      </c>
+      <c r="H12" s="97" t="s">
         <v>299</v>
-      </c>
-      <c r="H12" s="97" t="s">
-        <v>300</v>
       </c>
       <c r="I12" s="97"/>
       <c r="J12" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K12" s="97" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L12" s="97" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M12" s="97" t="s">
         <v>282</v>
       </c>
       <c r="N12" s="97"/>
       <c r="O12" s="97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P12" s="97" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q12" s="97" t="s">
         <v>273</v>
       </c>
       <c r="R12" s="97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S12" s="53"/>
       <c r="V12" s="120"/>
@@ -4690,7 +4688,7 @@
         <v>209</v>
       </c>
       <c r="K13" s="117" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L13" s="75" t="s">
         <v>211</v>
@@ -4721,42 +4719,42 @@
       <c r="C14" s="52"/>
       <c r="D14" s="109"/>
       <c r="E14" s="109" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G14" s="109" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H14" s="109" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I14" s="109"/>
       <c r="J14" s="109" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K14" s="109" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L14" s="109" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M14" s="109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N14" s="109"/>
       <c r="O14" s="109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P14" s="109" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="109" t="s">
         <v>274</v>
       </c>
       <c r="R14" s="109" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="71"/>
@@ -4787,38 +4785,38 @@
       <c r="C16" s="52"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="97" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="97" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>364</v>
-      </c>
-      <c r="H16" s="97" t="s">
-        <v>307</v>
       </c>
       <c r="I16" s="97"/>
       <c r="J16" s="97"/>
       <c r="K16" s="97" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L16" s="97" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M16" s="97"/>
       <c r="N16" s="97" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O16" s="97" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P16" s="97"/>
       <c r="Q16" s="97" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R16" s="97" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="71"/>
@@ -4882,38 +4880,38 @@
       <c r="C18" s="52"/>
       <c r="D18" s="109"/>
       <c r="E18" s="109" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>306</v>
+        <v>445</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H18" s="109" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I18" s="109"/>
       <c r="J18" s="109"/>
       <c r="K18" s="109" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L18" s="109" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M18" s="109"/>
       <c r="N18" s="109" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="O18" s="109" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P18" s="109"/>
       <c r="Q18" s="109" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="R18" s="109" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="71"/>
@@ -4943,45 +4941,45 @@
       <c r="B20" s="65"/>
       <c r="C20" s="52"/>
       <c r="D20" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E20" s="97" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F20" s="97" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G20" s="97" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H20" s="97" t="s">
         <v>287</v>
       </c>
       <c r="I20" s="97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J20" s="97"/>
       <c r="K20" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L20" s="97" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M20" s="97" t="s">
         <v>275</v>
       </c>
       <c r="N20" s="97" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O20" s="97" t="s">
         <v>287</v>
       </c>
       <c r="P20" s="97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="97"/>
       <c r="R20" s="97" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="71"/>
@@ -4993,7 +4991,7 @@
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="117" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E21" s="75" t="s">
         <v>231</v>
@@ -5002,7 +5000,7 @@
         <v>232</v>
       </c>
       <c r="G21" s="117" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H21" s="75" t="s">
         <v>196</v>
@@ -5044,45 +5042,45 @@
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
       <c r="D22" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E22" s="109" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F22" s="109" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G22" s="109" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H22" s="109" t="s">
         <v>288</v>
       </c>
       <c r="I22" s="109" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J22" s="109"/>
       <c r="K22" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L22" s="109" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M22" s="109" t="s">
         <v>276</v>
       </c>
       <c r="N22" s="109" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="O22" s="109" t="s">
         <v>288</v>
       </c>
       <c r="P22" s="109" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="109"/>
       <c r="R22" s="109" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="71"/>
@@ -5112,43 +5110,43 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="97" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E24" s="97"/>
       <c r="F24" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G24" s="97" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H24" s="97" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I24" s="97"/>
       <c r="J24" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K24" s="97" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L24" s="97" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M24" s="97"/>
       <c r="N24" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="O24" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="P24" s="97" t="s">
         <v>319</v>
       </c>
-      <c r="O24" s="97" t="s">
+      <c r="Q24" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="R24" s="97" t="s">
         <v>321</v>
-      </c>
-      <c r="P24" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q24" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="R24" s="97" t="s">
-        <v>324</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="71"/>
@@ -5172,7 +5170,7 @@
         <v>237</v>
       </c>
       <c r="H25" s="117" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I25" s="75" t="s">
         <v>239</v>
@@ -5181,7 +5179,7 @@
         <v>186</v>
       </c>
       <c r="K25" s="117" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L25" s="75" t="s">
         <v>241</v>
@@ -5213,43 +5211,43 @@
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
       <c r="D26" s="109" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E26" s="109"/>
       <c r="F26" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G26" s="109" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H26" s="109" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="I26" s="109"/>
       <c r="J26" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K26" s="109" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L26" s="109" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M26" s="109"/>
       <c r="N26" s="109" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O26" s="109" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="P26" s="109" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="109" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="R26" s="109" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="S26" s="58"/>
       <c r="V26" s="71"/>
@@ -5281,13 +5279,13 @@
       <c r="B28" s="65"/>
       <c r="C28" s="1"/>
       <c r="D28" s="97" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E28" s="97" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G28" s="97" t="s">
         <v>287</v>
@@ -5296,30 +5294,30 @@
         <v>289</v>
       </c>
       <c r="I28" s="97" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="97" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L28" s="97" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M28" s="97" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="N28" s="97" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="97" t="s">
+        <v>425</v>
+      </c>
+      <c r="R28" s="97" t="s">
         <v>429</v>
-      </c>
-      <c r="R28" s="97" t="s">
-        <v>433</v>
       </c>
       <c r="S28" s="53"/>
       <c r="T28" s="1"/>
@@ -5355,7 +5353,7 @@
         <v>250</v>
       </c>
       <c r="L29" s="117" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M29" s="75" t="s">
         <v>252</v>
@@ -5373,7 +5371,7 @@
         <v>251</v>
       </c>
       <c r="R29" s="117" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="S29" s="54"/>
       <c r="T29" s="49"/>
@@ -5384,13 +5382,13 @@
       <c r="B30" s="69"/>
       <c r="C30" s="51"/>
       <c r="D30" s="109" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E30" s="109" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F30" s="109" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G30" s="109" t="s">
         <v>288</v>
@@ -5399,30 +5397,30 @@
         <v>290</v>
       </c>
       <c r="I30" s="109" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J30" s="109"/>
       <c r="K30" s="109" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="L30" s="109" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M30" s="109" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N30" s="109" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="O30" s="109"/>
       <c r="P30" s="109" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="Q30" s="109" t="s">
+        <v>426</v>
+      </c>
+      <c r="R30" s="109" t="s">
         <v>430</v>
-      </c>
-      <c r="R30" s="109" t="s">
-        <v>434</v>
       </c>
       <c r="S30" s="55"/>
       <c r="V30" s="71"/>
@@ -5455,36 +5453,36 @@
       <c r="B32" s="65"/>
       <c r="C32" s="1"/>
       <c r="D32" s="97" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E32" s="97" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F32" s="97" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G32" s="97"/>
       <c r="H32" s="97"/>
       <c r="I32" s="97" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J32" s="97" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K32" s="97"/>
       <c r="L32" s="97"/>
       <c r="M32" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N32" s="97" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q32" s="97" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="R32" s="97"/>
       <c r="S32" s="53"/>
@@ -5548,36 +5546,36 @@
       <c r="B34" s="69"/>
       <c r="C34" s="1"/>
       <c r="D34" s="109" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E34" s="109" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F34" s="109" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G34" s="109"/>
       <c r="H34" s="109"/>
       <c r="I34" s="109" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J34" s="109" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K34" s="109"/>
       <c r="L34" s="109"/>
       <c r="M34" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N34" s="109" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O34" s="109"/>
       <c r="P34" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q34" s="109" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="R34" s="109"/>
       <c r="S34" s="58"/>
@@ -5618,35 +5616,35 @@
       </c>
       <c r="G36" s="97"/>
       <c r="H36" s="97" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I36" s="97" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J36" s="97" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K36" s="97" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L36" s="97"/>
       <c r="M36" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="N36" s="97" t="s">
+        <v>366</v>
+      </c>
+      <c r="O36" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="P36" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q36" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="N36" s="97" t="s">
-        <v>369</v>
-      </c>
-      <c r="O36" s="97" t="s">
-        <v>417</v>
-      </c>
-      <c r="P36" s="97" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q36" s="97" t="s">
-        <v>314</v>
-      </c>
       <c r="R36" s="97" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="S36" s="53"/>
       <c r="T36" s="1"/>
@@ -5673,7 +5671,7 @@
         <v>229</v>
       </c>
       <c r="I37" s="117" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J37" s="75" t="s">
         <v>261</v>
@@ -5709,7 +5707,7 @@
       <c r="B38" s="69"/>
       <c r="C38" s="52"/>
       <c r="D38" s="109" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E38" s="109" t="s">
         <v>288</v>
@@ -5719,35 +5717,35 @@
       </c>
       <c r="G38" s="109"/>
       <c r="H38" s="109" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I38" s="109" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J38" s="109" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K38" s="109" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L38" s="109"/>
       <c r="M38" s="109" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N38" s="109" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="O38" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P38" s="109" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q38" s="109" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="R38" s="109" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="S38" s="58"/>
       <c r="T38" s="1"/>
@@ -5781,39 +5779,39 @@
         <v>287</v>
       </c>
       <c r="E40" s="97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F40" s="97"/>
       <c r="G40" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H40" s="97" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I40" s="97" t="s">
         <v>275</v>
       </c>
       <c r="J40" s="97" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K40" s="97" t="s">
         <v>287</v>
       </c>
       <c r="L40" s="97" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M40" s="97"/>
       <c r="N40" s="97" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="O40" s="97" t="s">
+        <v>338</v>
+      </c>
+      <c r="P40" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q40" s="97" t="s">
         <v>341</v>
-      </c>
-      <c r="P40" s="97" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q40" s="97" t="s">
-        <v>344</v>
       </c>
       <c r="R40" s="97"/>
       <c r="S40" s="53"/>
@@ -5880,39 +5878,39 @@
         <v>288</v>
       </c>
       <c r="E42" s="109" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F42" s="109"/>
       <c r="G42" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H42" s="109" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I42" s="109" t="s">
         <v>276</v>
       </c>
       <c r="J42" s="109" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K42" s="109" t="s">
         <v>288</v>
       </c>
       <c r="L42" s="109" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M42" s="109"/>
       <c r="N42" s="109" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O42" s="109" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P42" s="109" t="s">
         <v>283</v>
       </c>
       <c r="Q42" s="109" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="R42" s="109"/>
       <c r="S42" s="58"/>
@@ -5944,43 +5942,43 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="97" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E44" s="97" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G44" s="97" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H44" s="97"/>
       <c r="I44" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J44" s="97" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K44" s="97" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L44" s="97"/>
       <c r="M44" s="97" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="N44" s="97" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O44" s="97" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P44" s="97"/>
       <c r="Q44" s="97" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="R44" s="97" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S44" s="53"/>
       <c r="T44" s="1"/>
@@ -6043,43 +6041,43 @@
       <c r="B46" s="69"/>
       <c r="C46" s="52"/>
       <c r="D46" s="109" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E46" s="109" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F46" s="109" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G46" s="109" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H46" s="109"/>
       <c r="I46" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J46" s="109" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K46" s="109" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L46" s="109"/>
       <c r="M46" s="109" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="N46" s="109" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="O46" s="109" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P46" s="109"/>
       <c r="Q46" s="109" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="R46" s="109" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="S46" s="53"/>
       <c r="T46" s="1"/>
@@ -6110,22 +6108,22 @@
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="97" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E48" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="97" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" s="97" t="s">
         <v>323</v>
       </c>
-      <c r="F48" s="97" t="s">
+      <c r="H48" s="97" t="s">
         <v>324</v>
       </c>
-      <c r="G48" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="H48" s="97" t="s">
-        <v>327</v>
-      </c>
       <c r="I48" s="97" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J48" s="97" t="s">
         <v>287</v>
@@ -6134,20 +6132,20 @@
         <v>289</v>
       </c>
       <c r="L48" s="97" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M48" s="97"/>
       <c r="N48" s="97" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O48" s="97" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P48" s="97" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q48" s="97" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="R48" s="97"/>
       <c r="S48" s="58"/>
@@ -6199,7 +6197,7 @@
         <v>268</v>
       </c>
       <c r="Q49" s="117" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="R49" s="75" t="s">
         <v>202</v>
@@ -6210,22 +6208,22 @@
     <row r="50" spans="2:22" ht="36" customHeight="1">
       <c r="B50" s="69"/>
       <c r="D50" s="109" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E50" s="109" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F50" s="109" t="s">
+        <v>322</v>
+      </c>
+      <c r="G50" s="109" t="s">
+        <v>395</v>
+      </c>
+      <c r="H50" s="109" t="s">
         <v>325</v>
       </c>
-      <c r="G50" s="109" t="s">
-        <v>399</v>
-      </c>
-      <c r="H50" s="109" t="s">
-        <v>328</v>
-      </c>
       <c r="I50" s="109" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J50" s="109" t="s">
         <v>288</v>
@@ -6234,20 +6232,20 @@
         <v>290</v>
       </c>
       <c r="L50" s="109" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M50" s="109"/>
       <c r="N50" s="109" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="O50" s="109" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P50" s="109" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="Q50" s="109" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="R50" s="109"/>
       <c r="S50" s="112"/>
@@ -6278,38 +6276,38 @@
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="97" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E52" s="97" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G52" s="97" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H52" s="97" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I52" s="97" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J52" s="97"/>
       <c r="K52" s="97"/>
       <c r="L52" s="97"/>
       <c r="M52" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="N52" s="97" t="s">
         <v>345</v>
-      </c>
-      <c r="N52" s="97" t="s">
-        <v>348</v>
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q52" s="97" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="R52" s="97"/>
       <c r="S52" s="58"/>
@@ -6372,38 +6370,38 @@
     <row r="54" spans="2:22" ht="36" customHeight="1">
       <c r="B54" s="69"/>
       <c r="D54" s="109" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E54" s="109" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F54" s="109" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G54" s="109" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H54" s="109" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I54" s="109" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J54" s="109"/>
       <c r="K54" s="109"/>
       <c r="L54" s="109"/>
       <c r="M54" s="109" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="N54" s="109" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O54" s="109"/>
       <c r="P54" s="109" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q54" s="109" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="R54" s="109"/>
       <c r="S54" s="112"/>
@@ -6433,16 +6431,16 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="97" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E56" s="97" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G56" s="97" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H56" s="97"/>
       <c r="I56" s="97"/>
@@ -6468,10 +6466,10 @@
         <v>271</v>
       </c>
       <c r="E57" s="117" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F57" s="117" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G57" s="75" t="s">
         <v>272</v>
@@ -6497,16 +6495,16 @@
     <row r="58" spans="2:22" ht="36" customHeight="1">
       <c r="B58" s="69"/>
       <c r="D58" s="109" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E58" s="109" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F58" s="109" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G58" s="109" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H58" s="109"/>
       <c r="I58" s="109"/>

--- a/output2/【河洛話注音】金剛般若波羅蜜經002。善現啟請分第二.xlsx
+++ b/output2/【河洛話注音】金剛般若波羅蜜經002。善現啟請分第二.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06B51B74-C295-4DE6-BE99-9E4C6C43242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461F8F6F-072D-43F8-A56C-7207B2C6C993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="10" r:id="rId1"/>
@@ -1253,397 +1253,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>king3</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄥ˪</t>
-  </si>
-  <si>
-    <t>hun1</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>te7</t>
-  </si>
-  <si>
-    <t>ㄉㆤ˫</t>
-  </si>
-  <si>
-    <t>si5</t>
-  </si>
-  <si>
-    <t>ㄒㄧˊ</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>ㄙㄨˉ</t>
-  </si>
-  <si>
-    <t>phoo5</t>
-  </si>
-  <si>
-    <t>ㄆㆦˊ</t>
-  </si>
-  <si>
-    <t>the5</t>
-  </si>
-  <si>
-    <t>ㄊㆤˊ</t>
-  </si>
-  <si>
-    <t>pik8</t>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ˙</t>
-  </si>
-  <si>
-    <t>hut8</t>
-  </si>
-  <si>
-    <t>ㄏㄨㆵ˙</t>
-  </si>
-  <si>
-    <t>gian5</t>
-  </si>
-  <si>
-    <t>ㆣㄧㄢˊ</t>
-  </si>
-  <si>
-    <t>se3</t>
-  </si>
-  <si>
-    <t>ㄙㆤ˪</t>
-  </si>
-  <si>
-    <t>zun1</t>
-  </si>
-  <si>
-    <t>ㄗㄨㄣˉ</t>
-  </si>
-  <si>
-    <t>sian3</t>
-  </si>
-  <si>
-    <t>ㄒㄧㄢ˪</t>
-  </si>
-  <si>
-    <t>lam5</t>
-  </si>
-  <si>
-    <t>ㄌㆰˊ</t>
-  </si>
-  <si>
-    <t>zu2</t>
-  </si>
-  <si>
-    <t>ㄗㄨˋ</t>
-  </si>
-  <si>
-    <t>lu2</t>
-  </si>
-  <si>
-    <t>ㄌㄨˋ</t>
-  </si>
-  <si>
-    <t>jin5</t>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-  </si>
-  <si>
-    <t>huat4</t>
-  </si>
-  <si>
-    <t>ㄏㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>ㄚˉ</t>
-  </si>
-  <si>
-    <t>loo7</t>
-  </si>
-  <si>
-    <t>ㄌㆦ˫</t>
-  </si>
-  <si>
-    <t>to1</t>
-  </si>
-  <si>
-    <t>ㄉㄜˉ</t>
-  </si>
-  <si>
-    <t>lo5</t>
-  </si>
-  <si>
-    <t>ㄌㄜˊ</t>
-  </si>
-  <si>
-    <t>sam3</t>
-  </si>
-  <si>
-    <t>ㄙㆰ˪</t>
-  </si>
-  <si>
-    <t>biau2</t>
-  </si>
-  <si>
-    <t>ㆠㄧㄠˋ</t>
-  </si>
-  <si>
-    <t>sim1</t>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˉ</t>
-  </si>
-  <si>
-    <t>un5</t>
-  </si>
-  <si>
-    <t>ㄨㄣˊ</t>
-  </si>
-  <si>
-    <t>ho5</t>
-  </si>
-  <si>
-    <t>ㄏㄜˊ</t>
-  </si>
-  <si>
-    <t>in3</t>
-  </si>
-  <si>
-    <t>ㄧㄣ˪</t>
-  </si>
-  <si>
-    <t>zu7</t>
-  </si>
-  <si>
-    <t>ㄗㄨ˫</t>
-  </si>
-  <si>
-    <t>hong5</t>
-  </si>
-  <si>
-    <t>ㄏㆲˊ</t>
-  </si>
-  <si>
-    <t>hok8</t>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
-  </si>
-  <si>
-    <t>ki5</t>
-  </si>
-  <si>
-    <t>ㄍㄧˊ</t>
-  </si>
-  <si>
-    <t>tong1</t>
-  </si>
-  <si>
-    <t>ㄉㆲˉ</t>
-  </si>
-  <si>
-    <t>ju5</t>
-  </si>
-  <si>
-    <t>ㆡㄨˊ</t>
-  </si>
-  <si>
-    <t>si6</t>
-  </si>
-  <si>
-    <t>ㄒㄧˋ</t>
-  </si>
-  <si>
-    <t>ziong3</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆲ˪</t>
-  </si>
-  <si>
-    <t>ji5</t>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-  </si>
-  <si>
-    <t>iu2</t>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-  </si>
-  <si>
-    <t>sat4</t>
-  </si>
-  <si>
-    <t>ㄙㄚㆵ</t>
-  </si>
-  <si>
-    <t>zik4</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆻ</t>
-  </si>
-  <si>
-    <t>soo2</t>
-  </si>
-  <si>
-    <t>ㄙㆦˋ</t>
-  </si>
-  <si>
-    <t>lai5</t>
-  </si>
-  <si>
-    <t>ㄌㄞˊ</t>
-  </si>
-  <si>
-    <t>jian5</t>
-  </si>
-  <si>
-    <t>ㆢㄧㄢˊ</t>
-  </si>
-  <si>
-    <t>suat4</t>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-  </si>
-  <si>
-    <t>ju2</t>
-  </si>
-  <si>
-    <t>ㆡㄨˋ</t>
-  </si>
-  <si>
-    <t>zu1</t>
-  </si>
-  <si>
-    <t>ㄗㄨˉ</t>
-  </si>
-  <si>
-    <t>tiong1</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˉ</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>ㄏㄧˉ</t>
-  </si>
-  <si>
-    <t>tiong5</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˊ</t>
-  </si>
-  <si>
-    <t>tai7</t>
-  </si>
-  <si>
-    <t>ㄉㄞ˫</t>
-  </si>
-  <si>
-    <t>ui5</t>
-  </si>
-  <si>
-    <t>ㄨㄧˊ</t>
-  </si>
-  <si>
     <t>現</t>
   </si>
   <si>
     <t>在</t>
   </si>
   <si>
-    <t>hian7</t>
-  </si>
-  <si>
-    <t>ㄏㄧㄢ˫</t>
-  </si>
-  <si>
-    <t>zai6</t>
-  </si>
-  <si>
-    <t>ㄗㄞˋ</t>
-  </si>
-  <si>
     <t>二</t>
   </si>
   <si>
-    <t>ji7</t>
-  </si>
-  <si>
-    <t>ㆢㄧ˫</t>
-  </si>
-  <si>
     <t>念</t>
   </si>
   <si>
     <t>聞</t>
   </si>
   <si>
-    <t>liam7</t>
-  </si>
-  <si>
-    <t>ㄌㄧㆰ˫</t>
-  </si>
-  <si>
-    <t>bun5</t>
-  </si>
-  <si>
-    <t>ㆠㄨㄣˊ</t>
-  </si>
-  <si>
     <t>著</t>
   </si>
   <si>
-    <t>tiok8</t>
-  </si>
-  <si>
-    <t>ㄉㄧㆦㆻ˙</t>
-  </si>
-  <si>
     <t>從</t>
   </si>
   <si>
-    <t>zo7</t>
-  </si>
-  <si>
-    <t>ㄗㄜ˫</t>
-  </si>
-  <si>
-    <t>zing5</t>
-  </si>
-  <si>
-    <t>ㄐㄧㄥˊ</t>
-  </si>
-  <si>
     <t>合</t>
   </si>
   <si>
-    <t>hah8</t>
-  </si>
-  <si>
-    <t>ㄏㄚㆷ˙</t>
-  </si>
-  <si>
     <t>老</t>
-  </si>
-  <si>
-    <t>lo2</t>
-  </si>
-  <si>
-    <t>ㄌㄜˋ</t>
   </si>
   <si>
     <t>座</t>
@@ -1726,112 +1360,636 @@
     <t>欲</t>
   </si>
   <si>
+    <t>sian3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄢ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hian7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>khe2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㆤˋ</t>
-  </si>
-  <si>
-    <t>cing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄑㄧㄥˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phoo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆦˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄞˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄞ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆲ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsing5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tso7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄎㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄆㄧㄢˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>than2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄢˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kian1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㄢˉ</t>
-  </si>
-  <si>
-    <t>cik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄑㄧㆻ</t>
-  </si>
-  <si>
-    <t>ziang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄐㄧㄤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄍㄧㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ji5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hut8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄞˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄏㆦ˫</t>
-  </si>
-  <si>
-    <t>zai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liam7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆰ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄚˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆰ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄠˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄣ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆲˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsai1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄗㄞˉ</t>
-  </si>
-  <si>
-    <t>kin1</t>
-  </si>
-  <si>
-    <t>ㄍㄧㄣˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ju2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆡㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆦˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㆬˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄉㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄊㄧㄥ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆲˉ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆢㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>guan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㆣㄨㄢ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ngau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄫㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ㄧㆦㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2841,6 +2999,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="62" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -2859,9 +3020,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2869,55 +3027,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -3555,7 +3665,7 @@
   <dimension ref="B1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -3595,8 +3705,8 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="str">
-        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000") &amp; _xlfn.CONCAT("。", 漢字注音!D5:R5)</f>
-        <v>金剛般若波羅蜜經002。善現啟請分第二</v>
+        <f xml:space="preserve"> "金剛般若波羅蜜經" &amp; TEXT(C7, "000")</f>
+        <v>金剛般若波羅蜜經002</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -3619,7 +3729,7 @@
       <c r="B7" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="103">
+      <c r="C7" s="97">
         <v>2</v>
       </c>
     </row>
@@ -3720,32 +3830,32 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="97" t="s">
-        <v>374</v>
+      <c r="V3" s="98" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="H4" s="84" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="K4" s="84"/>
       <c r="L4" s="84"/>
@@ -3756,7 +3866,7 @@
       <c r="Q4" s="84"/>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="98"/>
+      <c r="V4" s="99"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
@@ -3766,13 +3876,13 @@
         <v>206</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>375</v>
+        <v>253</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>168</v>
@@ -3781,7 +3891,7 @@
         <v>169</v>
       </c>
       <c r="J5" s="80" t="s">
-        <v>350</v>
+        <v>244</v>
       </c>
       <c r="K5" s="80"/>
       <c r="L5" s="80"/>
@@ -3792,31 +3902,31 @@
       <c r="Q5" s="80"/>
       <c r="R5" s="80"/>
       <c r="S5" s="94"/>
-      <c r="V5" s="98"/>
+      <c r="V5" s="99"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="H6" s="85" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="85"/>
@@ -3827,7 +3937,7 @@
       <c r="Q6" s="85"/>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="98"/>
+      <c r="V6" s="99"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -3848,51 +3958,51 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="99"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
       <c r="F8" s="84" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="H8" s="84" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="M8" s="84" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="N8" s="84" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="P8" s="84"/>
       <c r="Q8" s="84" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="R8" s="84" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="S8" s="93"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="99"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -3912,7 +4022,7 @@
         <v>239</v>
       </c>
       <c r="H9" s="80" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="I9" s="80" t="s">
         <v>182</v>
@@ -3924,7 +4034,7 @@
         <v>184</v>
       </c>
       <c r="L9" s="80" t="s">
-        <v>345</v>
+        <v>243</v>
       </c>
       <c r="M9" s="80" t="s">
         <v>240</v>
@@ -3942,55 +4052,55 @@
         <v>236</v>
       </c>
       <c r="R9" s="80" t="s">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="99"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
       <c r="F10" s="85" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="H10" s="85" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="M10" s="85" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="N10" s="85" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="P10" s="85"/>
       <c r="Q10" s="85" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="R10" s="85" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="S10" s="96"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="99"/>
     </row>
     <row r="11" spans="2:22" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -4010,51 +4120,51 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="99"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>403</v>
+        <v>317</v>
       </c>
       <c r="F12" s="84"/>
       <c r="G12" s="84" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>407</v>
+        <v>321</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="J12" s="84" t="s">
-        <v>411</v>
+        <v>325</v>
       </c>
       <c r="K12" s="84"/>
       <c r="L12" s="84" t="s">
-        <v>409</v>
+        <v>323</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="N12" s="84" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="O12" s="84" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="P12" s="84"/>
       <c r="Q12" s="84" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>415</v>
+        <v>333</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="98"/>
+      <c r="V12" s="99"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
@@ -4062,96 +4172,96 @@
         <v>3</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>373</v>
+        <v>251</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>377</v>
+        <v>255</v>
       </c>
       <c r="F13" s="80" t="s">
         <v>167</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>378</v>
+        <v>256</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>379</v>
+        <v>257</v>
       </c>
       <c r="I13" s="80" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>381</v>
+        <v>259</v>
       </c>
       <c r="K13" s="80" t="s">
         <v>167</v>
       </c>
       <c r="L13" s="80" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
       <c r="M13" s="80" t="s">
-        <v>382</v>
+        <v>260</v>
       </c>
       <c r="N13" s="80" t="s">
-        <v>359</v>
+        <v>247</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
       <c r="P13" s="80" t="s">
         <v>167</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="R13" s="80" t="s">
-        <v>384</v>
+        <v>262</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="99"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>404</v>
+        <v>318</v>
       </c>
       <c r="F14" s="85"/>
       <c r="G14" s="85" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>408</v>
+        <v>322</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="K14" s="85"/>
       <c r="L14" s="85" t="s">
-        <v>410</v>
+        <v>324</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="N14" s="85" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="O14" s="85" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="P14" s="85"/>
       <c r="Q14" s="85" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>416</v>
+        <v>334</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="99"/>
     </row>
     <row r="15" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -4171,47 +4281,47 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="99"/>
     </row>
     <row r="16" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="56"/>
       <c r="D16" s="84" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>242</v>
+        <v>337</v>
       </c>
       <c r="F16" s="84"/>
       <c r="G16" s="84" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="J16" s="84" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
       <c r="M16" s="84" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="N16" s="84" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="O16" s="84"/>
       <c r="P16" s="84" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="R16" s="84"/>
       <c r="S16" s="93"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -4219,10 +4329,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>385</v>
+        <v>263</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>386</v>
+        <v>264</v>
       </c>
       <c r="F17" s="80" t="s">
         <v>171</v>
@@ -4246,7 +4356,7 @@
         <v>185</v>
       </c>
       <c r="M17" s="80" t="s">
-        <v>387</v>
+        <v>265</v>
       </c>
       <c r="N17" s="80" t="s">
         <v>192</v>
@@ -4264,47 +4374,47 @@
         <v>171</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="98"/>
+      <c r="V17" s="99"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
       <c r="E18" s="85" t="s">
-        <v>243</v>
+        <v>338</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="85" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>257</v>
+        <v>342</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="J18" s="85" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="K18" s="85"/>
       <c r="L18" s="85"/>
       <c r="M18" s="85" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N18" s="85" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="O18" s="85"/>
       <c r="P18" s="85" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="R18" s="85"/>
       <c r="S18" s="96"/>
-      <c r="V18" s="98"/>
+      <c r="V18" s="99"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -4324,53 +4434,53 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="98"/>
+      <c r="V19" s="99"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="J20" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="K20" s="84" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="L20" s="84"/>
       <c r="M20" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="98"/>
+      <c r="V20" s="99"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -4387,10 +4497,10 @@
         <v>206</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>388</v>
+        <v>266</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="I21" s="80" t="s">
         <v>203</v>
@@ -4408,10 +4518,10 @@
         <v>206</v>
       </c>
       <c r="N21" s="80" t="s">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="O21" s="80" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="P21" s="80" t="s">
         <v>203</v>
@@ -4423,53 +4533,53 @@
         <v>234</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="98"/>
+      <c r="V21" s="99"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="E22" s="85" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="J22" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="K22" s="85" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="L22" s="85"/>
       <c r="M22" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="85" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -4495,40 +4605,40 @@
       <c r="B24" s="56"/>
       <c r="D24" s="84"/>
       <c r="E24" s="84" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="F24" s="84" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="G24" s="84"/>
       <c r="H24" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="O24" s="84"/>
       <c r="P24" s="84" t="s">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="Q24" s="84" t="s">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -4590,40 +4700,40 @@
       <c r="B26" s="58"/>
       <c r="D26" s="85"/>
       <c r="E26" s="85" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="G26" s="85"/>
       <c r="H26" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="O26" s="85"/>
       <c r="P26" s="85" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="85" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -4659,45 +4769,45 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="G28" s="84" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="H28" s="84" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84" t="s">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>296</v>
+        <v>395</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="Q28" s="84"/>
       <c r="R28" s="84" t="s">
-        <v>292</v>
+        <v>391</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -4766,45 +4876,45 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="G30" s="85" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="H30" s="85" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="Q30" s="85"/>
       <c r="R30" s="85" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -4840,39 +4950,39 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>294</v>
+        <v>393</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="H32" s="84" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="I32" s="84"/>
       <c r="J32" s="84"/>
       <c r="K32" s="84" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>260</v>
+        <v>345</v>
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="84"/>
       <c r="O32" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P32" s="84" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="Q32" s="84"/>
       <c r="R32" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="S32" s="93"/>
       <c r="U32" s="67" t="str">
@@ -4923,7 +5033,7 @@
         <v>206</v>
       </c>
       <c r="P33" s="80" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="Q33" s="80" t="s">
         <v>186</v>
@@ -4937,39 +5047,39 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>295</v>
+        <v>394</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>305</v>
+        <v>404</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="I34" s="85"/>
       <c r="J34" s="85"/>
       <c r="K34" s="85" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="85"/>
       <c r="O34" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="P34" s="85" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="Q34" s="85"/>
       <c r="R34" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="S34" s="96"/>
       <c r="V34" s="60"/>
@@ -4997,43 +5107,43 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="84" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="E36" s="84"/>
       <c r="F36" s="84" t="s">
-        <v>250</v>
+        <v>297</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="L36" s="84" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -5044,7 +5154,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="E37" s="80" t="s">
         <v>186</v>
@@ -5086,7 +5196,7 @@
         <v>206</v>
       </c>
       <c r="R37" s="80" t="s">
-        <v>388</v>
+        <v>266</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -5094,43 +5204,43 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="85" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E38" s="85"/>
       <c r="F38" s="85" t="s">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="I38" s="85"/>
       <c r="J38" s="85" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="L38" s="85" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="R38" s="85" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -5158,43 +5268,43 @@
     <row r="40" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="56"/>
       <c r="D40" s="84" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="H40" s="84"/>
       <c r="I40" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="J40" s="84" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="K40" s="84"/>
       <c r="L40" s="84" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="M40" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="N40" s="84" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="O40" s="84"/>
       <c r="P40" s="84" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="R40" s="84" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="S40" s="93"/>
       <c r="V40" s="60"/>
@@ -5205,7 +5315,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="E41" s="80" t="s">
         <v>203</v>
@@ -5223,10 +5333,10 @@
         <v>206</v>
       </c>
       <c r="J41" s="80" t="s">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="K41" s="80" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="L41" s="80" t="s">
         <v>203</v>
@@ -5244,10 +5354,10 @@
         <v>237</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="R41" s="80" t="s">
-        <v>393</v>
+        <v>271</v>
       </c>
       <c r="S41" s="94"/>
       <c r="V41" s="60"/>
@@ -5255,43 +5365,43 @@
     <row r="42" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="58"/>
       <c r="D42" s="85" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E42" s="85" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="H42" s="85"/>
       <c r="I42" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="J42" s="85" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="K42" s="85"/>
       <c r="L42" s="85" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="N42" s="85" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="O42" s="85"/>
       <c r="P42" s="85" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="R42" s="85" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="S42" s="96"/>
       <c r="V42" s="60"/>
@@ -5319,40 +5429,40 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E44" s="84"/>
       <c r="F44" s="84" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
       <c r="G44" s="84" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="H44" s="84" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>328</v>
+        <v>411</v>
       </c>
       <c r="J44" s="84"/>
       <c r="K44" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="L44" s="84" t="s">
-        <v>268</v>
+        <v>367</v>
       </c>
       <c r="M44" s="84" t="s">
-        <v>270</v>
+        <v>369</v>
       </c>
       <c r="N44" s="84"/>
       <c r="O44" s="84" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="P44" s="84" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="Q44" s="84" t="s">
-        <v>274</v>
+        <v>373</v>
       </c>
       <c r="R44" s="84"/>
       <c r="S44" s="93"/>
@@ -5364,7 +5474,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>394</v>
+        <v>272</v>
       </c>
       <c r="E45" s="80" t="s">
         <v>167</v>
@@ -5414,40 +5524,40 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E46" s="85"/>
       <c r="F46" s="85" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="G46" s="85" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="H46" s="85" t="s">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>329</v>
+        <v>412</v>
       </c>
       <c r="J46" s="85"/>
       <c r="K46" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L46" s="85" t="s">
-        <v>269</v>
+        <v>368</v>
       </c>
       <c r="M46" s="85" t="s">
-        <v>271</v>
+        <v>370</v>
       </c>
       <c r="N46" s="85"/>
       <c r="O46" s="85" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="P46" s="85" t="s">
-        <v>273</v>
+        <v>372</v>
       </c>
       <c r="Q46" s="85" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="R46" s="85"/>
       <c r="S46" s="96"/>
@@ -5476,47 +5586,47 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>280</v>
+        <v>379</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>282</v>
+        <v>381</v>
       </c>
       <c r="H48" s="84" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>288</v>
+        <v>387</v>
       </c>
       <c r="K48" s="84" t="s">
-        <v>286</v>
+        <v>385</v>
       </c>
       <c r="L48" s="84" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>254</v>
+        <v>301</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="O48" s="84"/>
       <c r="P48" s="84" t="s">
-        <v>296</v>
+        <v>395</v>
       </c>
       <c r="Q48" s="84" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="R48" s="84" t="s">
-        <v>310</v>
+        <v>423</v>
       </c>
       <c r="S48" s="93"/>
       <c r="V48" s="60"/>
@@ -5577,47 +5687,47 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>281</v>
+        <v>380</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>283</v>
+        <v>382</v>
       </c>
       <c r="H50" s="85" t="s">
-        <v>285</v>
+        <v>384</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>289</v>
+        <v>388</v>
       </c>
       <c r="K50" s="85" t="s">
-        <v>287</v>
+        <v>386</v>
       </c>
       <c r="L50" s="85" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="O50" s="85"/>
       <c r="P50" s="85" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="Q50" s="85" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="R50" s="85" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="S50" s="96"/>
       <c r="V50" s="60"/>
@@ -5645,39 +5755,39 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="E52" s="84"/>
       <c r="F52" s="84" t="s">
-        <v>308</v>
+        <v>355</v>
       </c>
       <c r="G52" s="84" t="s">
-        <v>310</v>
+        <v>423</v>
       </c>
       <c r="H52" s="84" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="J52" s="84" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>290</v>
+        <v>389</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84"/>
       <c r="N52" s="84"/>
       <c r="O52" s="84" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>326</v>
+        <v>425</v>
       </c>
       <c r="Q52" s="84"/>
       <c r="R52" s="84" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="S52" s="93"/>
       <c r="V52" s="60"/>
@@ -5721,7 +5831,7 @@
         <v>185</v>
       </c>
       <c r="O53" s="80" t="s">
-        <v>395</v>
+        <v>273</v>
       </c>
       <c r="P53" s="80" t="s">
         <v>216</v>
@@ -5738,39 +5848,39 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
       <c r="E54" s="85"/>
       <c r="F54" s="85" t="s">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="G54" s="85" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="H54" s="85" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>303</v>
+        <v>402</v>
       </c>
       <c r="J54" s="85" t="s">
-        <v>305</v>
+        <v>404</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>291</v>
+        <v>390</v>
       </c>
       <c r="L54" s="85"/>
       <c r="M54" s="85"/>
       <c r="N54" s="85"/>
       <c r="O54" s="85" t="s">
-        <v>343</v>
+        <v>422</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>327</v>
+        <v>426</v>
       </c>
       <c r="Q54" s="85"/>
       <c r="R54" s="85" t="s">
-        <v>263</v>
+        <v>352</v>
       </c>
       <c r="S54" s="96"/>
       <c r="V54" s="60"/>
@@ -5798,20 +5908,20 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c r="E56" s="84"/>
       <c r="F56" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="G56" s="84" t="s">
         <v>429</v>
       </c>
-      <c r="G56" s="84" t="s">
+      <c r="H56" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="H56" s="84" t="s">
+      <c r="I56" s="84" t="s">
         <v>433</v>
-      </c>
-      <c r="I56" s="84" t="s">
-        <v>357</v>
       </c>
       <c r="J56" s="84"/>
       <c r="K56" s="84"/>
@@ -5837,16 +5947,16 @@
         <v>186</v>
       </c>
       <c r="F57" s="80" t="s">
-        <v>396</v>
+        <v>274</v>
       </c>
       <c r="G57" s="81" t="s">
-        <v>397</v>
+        <v>275</v>
       </c>
       <c r="H57" s="80" t="s">
-        <v>398</v>
+        <v>276</v>
       </c>
       <c r="I57" s="80" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="J57" s="80" t="s">
         <v>171</v>
@@ -5867,20 +5977,20 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="E58" s="85"/>
       <c r="F58" s="85" t="s">
+        <v>428</v>
+      </c>
+      <c r="G58" s="85" t="s">
         <v>430</v>
       </c>
-      <c r="G58" s="85" t="s">
+      <c r="H58" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="H58" s="85" t="s">
+      <c r="I58" s="85" t="s">
         <v>434</v>
-      </c>
-      <c r="I58" s="85" t="s">
-        <v>358</v>
       </c>
       <c r="J58" s="85"/>
       <c r="K58" s="85"/>
@@ -9642,26 +9752,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="13" priority="363">
+    <cfRule type="expression" dxfId="9" priority="363">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="364">
+    <cfRule type="expression" dxfId="8" priority="364">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D23:R23 D31:R31 D39:R39 D47:R47 D51:R51 D59:R59 D63:R63 D67:R67 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D19:R19 D27:R27 D35:R35 D43:R43 D55:R55 D71:R71">
-    <cfRule type="expression" dxfId="11" priority="7">
+  <conditionalFormatting sqref="D7:R7 D11:R11 D15:R15 D19:R19 D23:R23 D27:R27 D31:R31 D35:R35 D39:R39 D43:R43 D47:R47 D51:R51 D55:R55 D59:R59 D63:R63 D67:R67 D71:R71 D75:R75 D79:R79 D83:R83 D87:R87 D91:R91 D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9743,7 +9853,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -9761,7 +9871,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="101" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -9786,7 +9896,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="101"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -9806,7 +9916,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -9828,7 +9938,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="101"/>
+      <c r="B7" s="102"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9844,7 +9954,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="101"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -9866,7 +9976,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="101"/>
+      <c r="B8" s="102"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -9882,7 +9992,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="101"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -9904,7 +10014,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="101"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9920,7 +10030,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="101"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -9942,7 +10052,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="102"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -9958,7 +10068,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="103"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -9981,7 +10091,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -9999,7 +10109,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="101" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -10023,7 +10133,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="101"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -10043,7 +10153,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="101"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -10063,7 +10173,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="101"/>
+      <c r="B13" s="102"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -10077,7 +10187,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="101"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -10097,7 +10207,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="101"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -10111,7 +10221,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="101"/>
+      <c r="I14" s="102"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -10131,7 +10241,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -10145,7 +10255,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -10165,7 +10275,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -10179,7 +10289,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="102"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
